--- a/book2.xlsx
+++ b/book2.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sanjay\Desktop\AI ML\DEV\Machine learning\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C77092F6-EFAB-41B8-A82F-47B8C7262C0D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{74E76B8C-167B-46B2-99EA-BD9D6A47B8AE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{876E164B-F2EE-456E-B330-A6DF790AAB39}"/>
+    <workbookView xWindow="4404" yWindow="2592" windowWidth="17280" windowHeight="8880" xr2:uid="{876E164B-F2EE-456E-B330-A6DF790AAB39}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -409,7 +409,7 @@
   <dimension ref="A1:D7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -460,6 +460,9 @@
       <c r="A4">
         <v>5600</v>
       </c>
+      <c r="B4">
+        <v>4</v>
+      </c>
       <c r="C4">
         <v>15</v>
       </c>
